--- a/Data/Myers et al.xlsx
+++ b/Data/Myers et al.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutk-my.sharepoint.com/personal/jweave49_uthsc_edu/Documents/VPC/Data/References/Myers_2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutk-my.sharepoint.com/personal/jweave49_uthsc_edu/Documents/GitHub/VirtualPatient/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{A71254C2-4872-47CA-B91A-829859BD71DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0EFD203-9212-432C-AFBC-9A97CB72A67F}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{A71254C2-4872-47CA-B91A-829859BD71DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B36A141-81EC-4038-8675-19FAEE36BFB5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{BC606053-676C-2047-B51D-3588863C08D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{BC606053-676C-2047-B51D-3588863C08D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Virus" sheetId="4" r:id="rId1"/>
@@ -1663,9 +1663,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1703,7 +1703,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1809,7 +1809,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1951,7 +1951,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2446,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9508345B-B493-4721-9746-FDCADB8BA0DE}">
   <dimension ref="A1:AB76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2699,7 +2699,7 @@
         <v>5.7277899999999997</v>
       </c>
       <c r="AB5" s="2">
-        <f>AVERAGE(R5:AA5)</f>
+        <f t="shared" ref="AB5:AB17" si="0">AVERAGE(R5:AA5)</f>
         <v>5.6382579999999995</v>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
         <v>5.5385299999999997</v>
       </c>
       <c r="AB6" s="2">
-        <f>AVERAGE(R6:AA6)</f>
+        <f t="shared" si="0"/>
         <v>5.6451830000000012</v>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
         <v>5.56358</v>
       </c>
       <c r="AB7" s="2">
-        <f>AVERAGE(R7:AA7)</f>
+        <f t="shared" si="0"/>
         <v>5.6449309999999997</v>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
         <v>5.83629</v>
       </c>
       <c r="AB8" s="2">
-        <f>AVERAGE(R8:AA8)</f>
+        <f t="shared" si="0"/>
         <v>5.8204019999999996</v>
       </c>
     </row>
@@ -3015,7 +3015,7 @@
         <v>5.8616999999999999</v>
       </c>
       <c r="AB9" s="2">
-        <f>AVERAGE(R9:AA9)</f>
+        <f t="shared" si="0"/>
         <v>5.7825439999999997</v>
       </c>
     </row>
@@ -3094,7 +3094,7 @@
         <v>5.6801500000000003</v>
       </c>
       <c r="AB10" s="2">
-        <f>AVERAGE(R10:AA10)</f>
+        <f t="shared" si="0"/>
         <v>5.7860839999999989</v>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
         <v>6.0805899999999999</v>
       </c>
       <c r="AB11" s="2">
-        <f>AVERAGE(R11:AA11)</f>
+        <f t="shared" si="0"/>
         <v>5.9189649999999991</v>
       </c>
     </row>
@@ -3252,7 +3252,7 @@
         <v>6.2707100000000002</v>
       </c>
       <c r="AB12" s="2">
-        <f>AVERAGE(R12:AA12)</f>
+        <f t="shared" si="0"/>
         <v>6.1779070000000003</v>
       </c>
     </row>
@@ -3265,51 +3265,51 @@
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" ref="C13:N13" si="0">AVERAGE(C3:C12)</f>
+        <f t="shared" ref="C13:N13" si="1">AVERAGE(C3:C12)</f>
         <v>3.9515790000000002</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8013070000000004</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0624890000000011</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7960960000000004</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8438359999999996</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3563749999999999</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0173100000000002</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3451490000000002</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q13" s="1">
@@ -3346,7 +3346,7 @@
         <v>6.4011699999999996</v>
       </c>
       <c r="AB13" s="2">
-        <f>AVERAGE(R13:AA13)</f>
+        <f t="shared" si="0"/>
         <v>6.3081070000000006</v>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
         <v>6.2164099999999998</v>
       </c>
       <c r="AB14" s="2">
-        <f>AVERAGE(R14:AA14)</f>
+        <f t="shared" si="0"/>
         <v>6.2534229999999997</v>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
         <v>6.1723499999999998</v>
       </c>
       <c r="AB15" s="2">
-        <f>AVERAGE(R15:AA15)</f>
+        <f t="shared" si="0"/>
         <v>6.1395379999999999</v>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
         <v>6.0924800000000001</v>
       </c>
       <c r="AB16" s="2">
-        <f>AVERAGE(R16:AA16)</f>
+        <f t="shared" si="0"/>
         <v>6.1103199999999998</v>
       </c>
     </row>
@@ -3622,7 +3622,7 @@
         <v>6.2358099999999999</v>
       </c>
       <c r="AB17" s="2">
-        <f>AVERAGE(R17:AA17)</f>
+        <f t="shared" si="0"/>
         <v>6.1252960000000005</v>
       </c>
     </row>
@@ -3919,51 +3919,51 @@
         <v>5.6382579999999995</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ref="C25" si="1">AVERAGE(C15:C24)</f>
+        <f t="shared" ref="C25" si="2">AVERAGE(C15:C24)</f>
         <v>5.6451830000000012</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" ref="D25" si="2">AVERAGE(D15:D24)</f>
+        <f t="shared" ref="D25" si="3">AVERAGE(D15:D24)</f>
         <v>5.6449309999999997</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25" si="3">AVERAGE(E15:E24)</f>
+        <f t="shared" ref="E25" si="4">AVERAGE(E15:E24)</f>
         <v>5.8204019999999996</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" ref="F25" si="4">AVERAGE(F15:F24)</f>
+        <f t="shared" ref="F25" si="5">AVERAGE(F15:F24)</f>
         <v>5.7825439999999997</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" ref="G25" si="5">AVERAGE(G15:G24)</f>
+        <f t="shared" ref="G25" si="6">AVERAGE(G15:G24)</f>
         <v>5.7860839999999989</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" ref="H25" si="6">AVERAGE(H15:H24)</f>
+        <f t="shared" ref="H25" si="7">AVERAGE(H15:H24)</f>
         <v>5.9189649999999991</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" ref="I25" si="7">AVERAGE(I15:I24)</f>
+        <f t="shared" ref="I25" si="8">AVERAGE(I15:I24)</f>
         <v>6.1779070000000003</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" ref="J25" si="8">AVERAGE(J15:J24)</f>
+        <f t="shared" ref="J25" si="9">AVERAGE(J15:J24)</f>
         <v>6.3081070000000006</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" ref="K25" si="9">AVERAGE(K15:K24)</f>
+        <f t="shared" ref="K25" si="10">AVERAGE(K15:K24)</f>
         <v>6.2534229999999997</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" ref="L25" si="10">AVERAGE(L15:L24)</f>
+        <f t="shared" ref="L25" si="11">AVERAGE(L15:L24)</f>
         <v>6.1395379999999999</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" ref="M25" si="11">AVERAGE(M15:M24)</f>
+        <f t="shared" ref="M25" si="12">AVERAGE(M15:M24)</f>
         <v>6.1103199999999998</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" ref="N25" si="12">AVERAGE(N15:N24)</f>
+        <f t="shared" ref="N25" si="13">AVERAGE(N15:N24)</f>
         <v>6.1252960000000005</v>
       </c>
     </row>
@@ -4183,51 +4183,51 @@
         <v>4.6520000000000001</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" ref="C32:L32" si="13">AVERAGE(C27:C31)</f>
+        <f t="shared" ref="C32:L32" si="14">AVERAGE(C27:C31)</f>
         <v>4.5140000000000002</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.8759999999999994</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.2</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.2759999999999998</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.3840000000000003</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.5220000000000002</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.9939999999999998</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.13</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.11</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.1019999999999994</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" ref="M32" si="14">AVERAGE(M22:M31)</f>
+        <f t="shared" ref="M32" si="15">AVERAGE(M22:M31)</f>
         <v>5.9960644444444444</v>
       </c>
       <c r="N32" s="2">
-        <f t="shared" ref="N32" si="15">AVERAGE(N22:N31)</f>
+        <f t="shared" ref="N32" si="16">AVERAGE(N22:N31)</f>
         <v>6.0008217777777784</v>
       </c>
     </row>
@@ -5477,7 +5477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E91D4B-7872-C24C-914F-0521E3454812}">
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A102" sqref="A102:A111"/>
     </sheetView>
   </sheetViews>
@@ -20147,23 +20147,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A112:A121"/>
+    <mergeCell ref="A102:A111"/>
+    <mergeCell ref="A92:A101"/>
+    <mergeCell ref="A82:A91"/>
+    <mergeCell ref="A62:A71"/>
+    <mergeCell ref="A72:A81"/>
+    <mergeCell ref="A162:A171"/>
+    <mergeCell ref="A152:A161"/>
+    <mergeCell ref="A142:A151"/>
+    <mergeCell ref="A132:A141"/>
+    <mergeCell ref="A122:A131"/>
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="A22:A31"/>
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A52:A61"/>
     <mergeCell ref="A42:A51"/>
-    <mergeCell ref="A162:A171"/>
-    <mergeCell ref="A152:A161"/>
-    <mergeCell ref="A142:A151"/>
-    <mergeCell ref="A132:A141"/>
-    <mergeCell ref="A122:A131"/>
-    <mergeCell ref="A112:A121"/>
-    <mergeCell ref="A102:A111"/>
-    <mergeCell ref="A92:A101"/>
-    <mergeCell ref="A82:A91"/>
-    <mergeCell ref="A62:A71"/>
-    <mergeCell ref="A72:A81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Myers et al.xlsx
+++ b/Data/Myers et al.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{A71254C2-4872-47CA-B91A-829859BD71DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B36A141-81EC-4038-8675-19FAEE36BFB5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{BC606053-676C-2047-B51D-3588863C08D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{BC606053-676C-2047-B51D-3588863C08D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Virus" sheetId="4" r:id="rId1"/>
@@ -1662,6 +1662,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -1961,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13AA672-1DDC-AA4E-95E8-83C9390AF308}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2446,7 +2450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9508345B-B493-4721-9746-FDCADB8BA0DE}">
   <dimension ref="A1:AB76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
@@ -20147,23 +20151,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A52:A61"/>
+    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="A162:A171"/>
+    <mergeCell ref="A152:A161"/>
+    <mergeCell ref="A142:A151"/>
+    <mergeCell ref="A132:A141"/>
+    <mergeCell ref="A122:A131"/>
     <mergeCell ref="A112:A121"/>
     <mergeCell ref="A102:A111"/>
     <mergeCell ref="A92:A101"/>
     <mergeCell ref="A82:A91"/>
     <mergeCell ref="A62:A71"/>
     <mergeCell ref="A72:A81"/>
-    <mergeCell ref="A162:A171"/>
-    <mergeCell ref="A152:A161"/>
-    <mergeCell ref="A142:A151"/>
-    <mergeCell ref="A132:A141"/>
-    <mergeCell ref="A122:A131"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A52:A61"/>
-    <mergeCell ref="A42:A51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Myers et al.xlsx
+++ b/Data/Myers et al.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutk-my.sharepoint.com/personal/jweave49_uthsc_edu/Documents/GitHub/VirtualPatient/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{A71254C2-4872-47CA-B91A-829859BD71DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B36A141-81EC-4038-8675-19FAEE36BFB5}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{A71254C2-4872-47CA-B91A-829859BD71DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D614E34-DF66-42F0-BC6F-FA4DD959190F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{BC606053-676C-2047-B51D-3588863C08D2}"/>
+    <workbookView xWindow="-13935" yWindow="4995" windowWidth="12750" windowHeight="11835" activeTab="1" xr2:uid="{BC606053-676C-2047-B51D-3588863C08D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Virus" sheetId="4" r:id="rId1"/>
@@ -279,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -300,6 +300,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1965,7 +1966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13AA672-1DDC-AA4E-95E8-83C9390AF308}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:N11"/>
     </sheetView>
   </sheetViews>
@@ -2016,7 +2017,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -2060,7 +2061,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2">
         <v>0</v>
       </c>
@@ -2102,7 +2103,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2">
         <v>0</v>
       </c>
@@ -2144,7 +2145,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2">
         <v>0</v>
       </c>
@@ -2186,7 +2187,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2">
         <v>0</v>
       </c>
@@ -2228,7 +2229,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2">
         <v>0</v>
       </c>
@@ -2270,7 +2271,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2">
         <v>0</v>
       </c>
@@ -2312,7 +2313,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2">
         <v>0</v>
       </c>
@@ -2354,7 +2355,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2">
         <v>0</v>
       </c>
@@ -2396,7 +2397,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2">
         <v>0</v>
       </c>
@@ -2450,13 +2451,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9508345B-B493-4721-9746-FDCADB8BA0DE}">
   <dimension ref="A1:AB76"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView tabSelected="1" topLeftCell="K25" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.875" style="1"/>
+    <col min="1" max="14" width="10.875" style="1"/>
+    <col min="15" max="16" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
@@ -2504,7 +2507,7 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
@@ -2548,7 +2551,7 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2">
         <v>0</v>
       </c>
@@ -2629,7 +2632,7 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2">
         <v>0</v>
       </c>
@@ -2708,7 +2711,7 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2">
         <v>0</v>
       </c>
@@ -2787,7 +2790,7 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2">
         <v>0</v>
       </c>
@@ -2866,7 +2869,7 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2">
         <v>0</v>
       </c>
@@ -2945,7 +2948,7 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2">
         <v>0</v>
       </c>
@@ -3024,7 +3027,7 @@
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2">
         <v>0</v>
       </c>
@@ -3103,7 +3106,7 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2">
         <v>0</v>
       </c>
@@ -3182,7 +3185,7 @@
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="2">
         <v>0</v>
       </c>
@@ -4139,6 +4142,7 @@
       <c r="N30" s="5">
         <v>5.95</v>
       </c>
+      <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B31" s="5">
@@ -4235,12 +4239,12 @@
         <v>6.0008217777777784</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B34" s="13">
         <v>2.77</v>
       </c>
@@ -4280,8 +4284,17 @@
       <c r="N34" s="5">
         <v>5.0599999999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="14">
+        <f>MAX(B34:N34)</f>
+        <v>5.71</v>
+      </c>
+      <c r="P34" s="14">
+        <f>10^O34</f>
+        <v>512861.38399136515</v>
+      </c>
+      <c r="Q34" s="14"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B35" s="13">
         <v>3.16</v>
       </c>
@@ -4321,8 +4334,17 @@
       <c r="N35" s="5">
         <v>5.78</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="14">
+        <f t="shared" ref="O35:O45" si="17">MAX(B35:N35)</f>
+        <v>5.89</v>
+      </c>
+      <c r="P35" s="14">
+        <f t="shared" ref="P35:P39" si="18">10^O35</f>
+        <v>776247.11662869214</v>
+      </c>
+      <c r="Q35" s="14"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B36" s="13">
         <v>3.04</v>
       </c>
@@ -4362,8 +4384,16 @@
       <c r="N36" s="5">
         <v>5.41</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36" s="14">
+        <f t="shared" si="17"/>
+        <v>5.71</v>
+      </c>
+      <c r="P36" s="14">
+        <f t="shared" si="18"/>
+        <v>512861.38399136515</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B37" s="13">
         <v>2.4</v>
       </c>
@@ -4403,8 +4433,16 @@
       <c r="N37" s="5">
         <v>5.58</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37" s="14">
+        <f t="shared" si="17"/>
+        <v>5.85</v>
+      </c>
+      <c r="P37" s="14">
+        <f t="shared" si="18"/>
+        <v>707945.78438413853</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B38" s="13">
         <v>3.05</v>
       </c>
@@ -4444,14 +4482,88 @@
       <c r="N38" s="5">
         <v>5.46</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="14">
+        <f t="shared" si="17"/>
+        <v>6.01</v>
+      </c>
+      <c r="P38" s="14">
+        <f t="shared" si="18"/>
+        <v>1023292.9922807553</v>
+      </c>
+      <c r="Q38" s="14"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B39" s="2">
+        <f>AVERAGE(B34:B38)</f>
+        <v>2.8839999999999995</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" ref="C39:N39" si="19">AVERAGE(C34:C38)</f>
+        <v>3.1459999999999999</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="19"/>
+        <v>3.17</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="19"/>
+        <v>3.758</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="19"/>
+        <v>3.9780000000000002</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="19"/>
+        <v>4.016</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="19"/>
+        <v>4.9880000000000004</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="19"/>
+        <v>5.33</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="19"/>
+        <v>5.8</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="19"/>
+        <v>5.5</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="19"/>
+        <v>5.4440000000000008</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="19"/>
+        <v>5.3</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="19"/>
+        <v>5.4580000000000002</v>
+      </c>
+      <c r="O39" s="14">
+        <f t="shared" si="17"/>
+        <v>5.8</v>
+      </c>
+      <c r="P39" s="14">
+        <f t="shared" si="18"/>
+        <v>630957.34448019415</v>
+      </c>
+      <c r="Q39" s="14"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>50</v>
       </c>
       <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="14"/>
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2">
         <v>0.3010299956639812</v>
@@ -4492,8 +4604,12 @@
       <c r="N41" s="2">
         <v>4.110373555853748</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="14">
+        <f t="shared" si="17"/>
+        <v>4.110373555853748</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
         <v>1.8560916497690427</v>
       </c>
@@ -4533,8 +4649,12 @@
       <c r="N42" s="2">
         <v>4.5433808076877353</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="14">
+        <f t="shared" si="17"/>
+        <v>4.5433808076877353</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
         <v>0.3010299956639812</v>
       </c>
@@ -4574,8 +4694,12 @@
       <c r="N43" s="2">
         <v>4.3874388050275348</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="14">
+        <f t="shared" si="17"/>
+        <v>4.3874388050275348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
         <v>0.3010299956639812</v>
       </c>
@@ -4615,8 +4739,13 @@
       <c r="N44" s="2">
         <v>4.4195033859484667</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="14">
+        <f t="shared" si="17"/>
+        <v>4.4195033859484667</v>
+      </c>
+      <c r="P44" s="14"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
         <v>1.9364348624364853</v>
       </c>
@@ -4656,8 +4785,12 @@
       <c r="N45" s="2">
         <v>4.2348141863482294</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="14">
+        <f t="shared" si="17"/>
+        <v>4.2348141863482294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -4672,12 +4805,12 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -5538,7 +5671,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="5">
@@ -5582,7 +5715,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="5">
         <v>6.9076800240000003</v>
       </c>
@@ -5624,7 +5757,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="5">
         <v>6.7558748560000002</v>
       </c>
@@ -5666,7 +5799,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="5">
         <v>6.761551989</v>
       </c>
@@ -5708,7 +5841,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="5">
         <v>7.0236639179999996</v>
       </c>
@@ -5750,7 +5883,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="5">
         <v>7.0334237550000003</v>
       </c>
@@ -5792,7 +5925,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="5">
         <v>6.9525018479999998</v>
       </c>
@@ -5834,7 +5967,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="5">
         <v>6.7920413110000002</v>
       </c>
@@ -5876,7 +6009,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="5">
         <v>6.7196626830000001</v>
       </c>
@@ -5918,7 +6051,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="5">
         <v>7.0748164410000003</v>
       </c>
@@ -5960,7 +6093,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="5">
@@ -6004,7 +6137,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="5">
         <v>5.4961236700000002</v>
       </c>
@@ -6046,7 +6179,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="5">
         <v>5.3044217170000003</v>
       </c>
@@ -6088,7 +6221,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="5">
         <v>5.3303717690000001</v>
       </c>
@@ -6130,7 +6263,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="5">
         <v>5.6579645489999999</v>
       </c>
@@ -6172,7 +6305,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="5">
         <v>5.2844870740000003</v>
       </c>
@@ -6214,7 +6347,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="5">
         <v>5.5564715329999999</v>
       </c>
@@ -6256,7 +6389,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="5">
         <v>5.3097262049999996</v>
       </c>
@@ -6298,7 +6431,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="5">
         <v>5.0823254200000001</v>
       </c>
@@ -6340,7 +6473,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="5">
         <v>5.5538844709999999</v>
       </c>
@@ -6382,7 +6515,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="5">
@@ -6426,7 +6559,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="5">
         <v>4.9346492639999999</v>
       </c>
@@ -6468,7 +6601,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="5">
         <v>5.0477310559999999</v>
       </c>
@@ -6510,7 +6643,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="5">
         <v>4.9522896120000004</v>
       </c>
@@ -6552,7 +6685,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="5">
         <v>5.2950702989999998</v>
       </c>
@@ -6594,7 +6727,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="5">
         <v>5.1088451619999997</v>
       </c>
@@ -6636,7 +6769,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="5">
         <v>4.9498928299999996</v>
       </c>
@@ -6678,7 +6811,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="5">
         <v>5.1075568579999997</v>
       </c>
@@ -6720,7 +6853,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="5">
         <v>4.902380591</v>
       </c>
@@ -6762,7 +6895,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="5">
         <v>5.0522718969999998</v>
       </c>
@@ -6804,7 +6937,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B32" s="5">
@@ -6848,7 +6981,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="5">
         <v>4.8952119559999998</v>
       </c>
@@ -6890,7 +7023,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="5">
         <v>4.7844741810000002</v>
       </c>
@@ -6932,7 +7065,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="5">
         <v>4.9233573030000004</v>
       </c>
@@ -6974,7 +7107,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="5">
         <v>5.268927873</v>
       </c>
@@ -7016,7 +7149,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="5">
         <v>5.0718316540000004</v>
       </c>
@@ -7058,7 +7191,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="5">
         <v>4.8428342439999996</v>
       </c>
@@ -7100,7 +7233,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="5">
         <v>5.0742443039999996</v>
       </c>
@@ -7142,7 +7275,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="5">
         <v>4.8242817950000001</v>
       </c>
@@ -7184,7 +7317,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="5">
         <v>5.0134338930000002</v>
       </c>
@@ -7226,7 +7359,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B42" s="5">
@@ -7270,7 +7403,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="5">
         <v>3.8732027690000002</v>
       </c>
@@ -7312,7 +7445,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="5">
         <v>4.7038979660000004</v>
       </c>
@@ -7354,7 +7487,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="5">
         <v>3.7615025590000002</v>
       </c>
@@ -7396,7 +7529,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="5">
         <v>4.0616262320000001</v>
       </c>
@@ -7438,7 +7571,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="5">
         <v>4.0210457799999997</v>
       </c>
@@ -7480,7 +7613,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="5">
         <v>4.288143228</v>
       </c>
@@ -7522,7 +7655,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="5">
         <v>3.9733130170000002</v>
       </c>
@@ -7564,7 +7697,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="5">
         <v>4.1219006780000003</v>
       </c>
@@ -7606,7 +7739,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="5">
         <v>3.9844701969999998</v>
       </c>
@@ -7648,7 +7781,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B52" s="5">
@@ -7692,7 +7825,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="5">
         <v>6.0309784329999996</v>
       </c>
@@ -7734,7 +7867,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
+      <c r="A54" s="16"/>
       <c r="B54" s="5">
         <v>6.2077168509999998</v>
       </c>
@@ -7776,7 +7909,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="15"/>
+      <c r="A55" s="16"/>
       <c r="B55" s="5">
         <v>5.7037728249999997</v>
       </c>
@@ -7818,7 +7951,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
+      <c r="A56" s="16"/>
       <c r="B56" s="5">
         <v>6.5514524099999996</v>
       </c>
@@ -7860,7 +7993,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="5">
         <v>6.6152564439999999</v>
       </c>
@@ -7902,7 +8035,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="5">
         <v>6.4717053499999997</v>
       </c>
@@ -7944,7 +8077,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
+      <c r="A59" s="16"/>
       <c r="B59" s="5">
         <v>5.8638834930000003</v>
       </c>
@@ -7986,7 +8119,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="16"/>
       <c r="B60" s="5">
         <v>5.7194621950000002</v>
       </c>
@@ -8028,7 +8161,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="15"/>
+      <c r="A61" s="16"/>
       <c r="B61" s="5">
         <v>6.1153305680000001</v>
       </c>
@@ -8070,7 +8203,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B62" s="5">
@@ -8114,7 +8247,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="5">
         <v>6.6793019510000002</v>
       </c>
@@ -8156,7 +8289,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
+      <c r="A64" s="16"/>
       <c r="B64" s="5">
         <v>6.4233868689999998</v>
       </c>
@@ -8198,7 +8331,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
+      <c r="A65" s="16"/>
       <c r="B65" s="5">
         <v>6.545577421</v>
       </c>
@@ -8240,7 +8373,7 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
+      <c r="A66" s="16"/>
       <c r="B66" s="5">
         <v>6.6125736149999996</v>
       </c>
@@ -8282,7 +8415,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="16"/>
       <c r="B67" s="5">
         <v>6.6537592849999996</v>
       </c>
@@ -8324,7 +8457,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
+      <c r="A68" s="16"/>
       <c r="B68" s="5">
         <v>6.5294838009999996</v>
       </c>
@@ -8366,7 +8499,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="15"/>
+      <c r="A69" s="16"/>
       <c r="B69" s="5">
         <v>6.455363545</v>
       </c>
@@ -8408,7 +8541,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
+      <c r="A70" s="16"/>
       <c r="B70" s="5">
         <v>6.3005888859999999</v>
       </c>
@@ -8450,7 +8583,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
+      <c r="A71" s="16"/>
       <c r="B71" s="5">
         <v>6.8755941370000002</v>
       </c>
@@ -8492,7 +8625,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B72" s="5">
@@ -8536,7 +8669,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
+      <c r="A73" s="16"/>
       <c r="B73" s="5">
         <v>5.5005767539999999</v>
       </c>
@@ -8578,7 +8711,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="16"/>
       <c r="B74" s="5">
         <v>4.9606220519999997</v>
       </c>
@@ -8620,7 +8753,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="15"/>
+      <c r="A75" s="16"/>
       <c r="B75" s="5">
         <v>5.3806128649999998</v>
       </c>
@@ -8662,7 +8795,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="15"/>
+      <c r="A76" s="16"/>
       <c r="B76" s="5">
         <v>5.6967550180000002</v>
       </c>
@@ -8704,7 +8837,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
+      <c r="A77" s="16"/>
       <c r="B77" s="5">
         <v>5.389885584</v>
       </c>
@@ -8746,7 +8879,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
+      <c r="A78" s="16"/>
       <c r="B78" s="5">
         <v>5.4894310820000003</v>
       </c>
@@ -8788,7 +8921,7 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
+      <c r="A79" s="16"/>
       <c r="B79" s="5">
         <v>5.2122922090000001</v>
       </c>
@@ -8830,7 +8963,7 @@
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
+      <c r="A80" s="16"/>
       <c r="B80" s="5">
         <v>5.0836873789999997</v>
       </c>
@@ -8872,7 +9005,7 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="16"/>
       <c r="B81" s="5">
         <v>5.6458421980000004</v>
       </c>
@@ -8914,7 +9047,7 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B82" s="5">
@@ -8958,7 +9091,7 @@
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="15"/>
+      <c r="A83" s="16"/>
       <c r="B83" s="5">
         <v>5.5948040409999997</v>
       </c>
@@ -9000,7 +9133,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="15"/>
+      <c r="A84" s="16"/>
       <c r="B84" s="5">
         <v>4.837791545</v>
       </c>
@@ -9042,7 +9175,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="15"/>
+      <c r="A85" s="16"/>
       <c r="B85" s="5">
         <v>5.3719549759999996</v>
       </c>
@@ -9084,7 +9217,7 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="15"/>
+      <c r="A86" s="16"/>
       <c r="B86" s="5">
         <v>5.2725581950000002</v>
       </c>
@@ -9126,7 +9259,7 @@
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="15"/>
+      <c r="A87" s="16"/>
       <c r="B87" s="5">
         <v>5.4150095140000003</v>
       </c>
@@ -9168,7 +9301,7 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="15"/>
+      <c r="A88" s="16"/>
       <c r="B88" s="5">
         <v>5.0879431049999999</v>
       </c>
@@ -9210,7 +9343,7 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="15"/>
+      <c r="A89" s="16"/>
       <c r="B89" s="5">
         <v>5.0962904809999996</v>
       </c>
@@ -9252,7 +9385,7 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="15"/>
+      <c r="A90" s="16"/>
       <c r="B90" s="5">
         <v>5.0574115549999998</v>
       </c>
@@ -9294,7 +9427,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="15"/>
+      <c r="A91" s="16"/>
       <c r="B91" s="5">
         <v>5.5567006560000003</v>
       </c>
@@ -9336,7 +9469,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B92" s="5">
@@ -9380,7 +9513,7 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" s="15"/>
+      <c r="A93" s="16"/>
       <c r="B93" s="5">
         <v>5.8582476840000002</v>
       </c>
@@ -9422,7 +9555,7 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" s="15"/>
+      <c r="A94" s="16"/>
       <c r="B94" s="5">
         <v>5.4480361869999996</v>
       </c>
@@ -9464,7 +9597,7 @@
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="15"/>
+      <c r="A95" s="16"/>
       <c r="B95" s="5">
         <v>5.8338630619999998</v>
       </c>
@@ -9506,7 +9639,7 @@
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A96" s="15"/>
+      <c r="A96" s="16"/>
       <c r="B96" s="5">
         <v>5.4014866960000001</v>
       </c>
@@ -9548,7 +9681,7 @@
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="15"/>
+      <c r="A97" s="16"/>
       <c r="B97" s="5">
         <v>5.3796552220000002</v>
       </c>
@@ -9590,7 +9723,7 @@
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98" s="15"/>
+      <c r="A98" s="16"/>
       <c r="B98" s="5">
         <v>5.2675094700000002</v>
       </c>
@@ -9632,7 +9765,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" s="15"/>
+      <c r="A99" s="16"/>
       <c r="B99" s="5">
         <v>5.5622358399999996</v>
       </c>
@@ -9674,7 +9807,7 @@
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" s="15"/>
+      <c r="A100" s="16"/>
       <c r="B100" s="5">
         <v>5.3750058239999996</v>
       </c>
@@ -9716,7 +9849,7 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" s="15"/>
+      <c r="A101" s="16"/>
       <c r="B101" s="5">
         <v>6.0327847290000003</v>
       </c>
@@ -9758,7 +9891,7 @@
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B102" s="5">
@@ -9802,7 +9935,7 @@
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A103" s="16"/>
+      <c r="A103" s="17"/>
       <c r="B103" s="5">
         <v>5.6705417679999996</v>
       </c>
@@ -9844,7 +9977,7 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A104" s="16"/>
+      <c r="A104" s="17"/>
       <c r="B104" s="5">
         <v>5.467283653</v>
       </c>
@@ -9886,7 +10019,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A105" s="16"/>
+      <c r="A105" s="17"/>
       <c r="B105" s="5">
         <v>5.5758801059999996</v>
       </c>
@@ -9928,7 +10061,7 @@
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106" s="16"/>
+      <c r="A106" s="17"/>
       <c r="B106" s="5">
         <v>5.6807809679999997</v>
       </c>
@@ -9970,7 +10103,7 @@
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A107" s="16"/>
+      <c r="A107" s="17"/>
       <c r="B107" s="5">
         <v>5.6157599420000004</v>
       </c>
@@ -10012,7 +10145,7 @@
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A108" s="16"/>
+      <c r="A108" s="17"/>
       <c r="B108" s="5">
         <v>5.6477004700000002</v>
       </c>
@@ -10054,7 +10187,7 @@
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" s="16"/>
+      <c r="A109" s="17"/>
       <c r="B109" s="5">
         <v>5.5854805900000004</v>
       </c>
@@ -10096,7 +10229,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="16"/>
+      <c r="A110" s="17"/>
       <c r="B110" s="5">
         <v>5.6271479339999999</v>
       </c>
@@ -10138,7 +10271,7 @@
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" s="16"/>
+      <c r="A111" s="17"/>
       <c r="B111" s="5">
         <v>5.7356563569999999</v>
       </c>
@@ -10180,7 +10313,7 @@
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B112" s="5">
@@ -10224,7 +10357,7 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A113" s="15"/>
+      <c r="A113" s="16"/>
       <c r="B113" s="5">
         <v>6.0908120319999997</v>
       </c>
@@ -10266,7 +10399,7 @@
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A114" s="15"/>
+      <c r="A114" s="16"/>
       <c r="B114" s="5">
         <v>5.8523565380000004</v>
       </c>
@@ -10308,7 +10441,7 @@
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A115" s="15"/>
+      <c r="A115" s="16"/>
       <c r="B115" s="5">
         <v>5.9799697480000003</v>
       </c>
@@ -10350,7 +10483,7 @@
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A116" s="15"/>
+      <c r="A116" s="16"/>
       <c r="B116" s="5">
         <v>6.1961970529999997</v>
       </c>
@@ -10392,7 +10525,7 @@
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A117" s="15"/>
+      <c r="A117" s="16"/>
       <c r="B117" s="5">
         <v>6.0944624799999998</v>
       </c>
@@ -10434,7 +10567,7 @@
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A118" s="15"/>
+      <c r="A118" s="16"/>
       <c r="B118" s="5">
         <v>6.0559420169999996</v>
       </c>
@@ -10476,7 +10609,7 @@
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A119" s="15"/>
+      <c r="A119" s="16"/>
       <c r="B119" s="5">
         <v>6.1007568570000004</v>
       </c>
@@ -10518,7 +10651,7 @@
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A120" s="15"/>
+      <c r="A120" s="16"/>
       <c r="B120" s="5">
         <v>6.10852796</v>
       </c>
@@ -10560,7 +10693,7 @@
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A121" s="15"/>
+      <c r="A121" s="16"/>
       <c r="B121" s="5">
         <v>6.2409059180000002</v>
       </c>
@@ -12976,7 +13109,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="5">
@@ -13020,7 +13153,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="5">
         <v>0</v>
       </c>
@@ -13062,7 +13195,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="5">
         <v>0</v>
       </c>
@@ -13104,7 +13237,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="5">
         <v>0</v>
       </c>
@@ -13146,7 +13279,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="5">
         <v>0</v>
       </c>
@@ -13188,7 +13321,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="5">
         <v>0</v>
       </c>
@@ -13230,7 +13363,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="5">
         <v>0</v>
       </c>
@@ -13272,7 +13405,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="5">
         <v>0</v>
       </c>
@@ -13314,7 +13447,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="5">
         <v>0</v>
       </c>
@@ -13356,7 +13489,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="5">
         <v>0</v>
       </c>
@@ -13398,7 +13531,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="5">
@@ -13442,7 +13575,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="5">
         <v>0</v>
       </c>
@@ -13484,7 +13617,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="5">
         <v>0</v>
       </c>
@@ -13526,7 +13659,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="5">
         <v>0</v>
       </c>
@@ -13568,7 +13701,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -13610,7 +13743,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="5">
         <v>0</v>
       </c>
@@ -13652,7 +13785,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="5">
         <v>0</v>
       </c>
@@ -13694,7 +13827,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="5">
         <v>0</v>
       </c>
@@ -13736,7 +13869,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="5">
         <v>0</v>
       </c>
@@ -13778,7 +13911,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="5">
         <v>0</v>
       </c>
@@ -13820,7 +13953,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="5">
@@ -13864,7 +13997,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="5">
         <v>0.95999500000000004</v>
       </c>
@@ -13906,7 +14039,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="5">
         <v>0.96754799999999996</v>
       </c>
@@ -13948,7 +14081,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="5">
         <v>0.91645399999999999</v>
       </c>
@@ -13990,7 +14123,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="5">
         <v>1.0103</v>
       </c>
@@ -14032,7 +14165,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="5">
         <v>0.96754799999999996</v>
       </c>
@@ -14074,7 +14207,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="5">
         <v>0.93651399999999996</v>
       </c>
@@ -14116,7 +14249,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="5">
         <v>0.92012300000000002</v>
       </c>
@@ -14158,7 +14291,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="5">
         <v>0.93951925000000003</v>
       </c>
@@ -14200,7 +14333,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="5">
         <v>1.5536178</v>
       </c>
@@ -14242,7 +14375,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="5">
@@ -14286,7 +14419,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="5">
         <v>1.4831510000000001</v>
       </c>
@@ -14328,7 +14461,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="5">
         <v>1.1054060000000001</v>
       </c>
@@ -14370,7 +14503,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="5">
         <v>1.483568</v>
       </c>
@@ -14412,7 +14545,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="5">
         <v>1.803566</v>
       </c>
@@ -14454,7 +14587,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="5">
         <v>1.0183770000000001</v>
       </c>
@@ -14496,7 +14629,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="5">
         <v>1.6167450000000001</v>
       </c>
@@ -14538,7 +14671,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="5">
         <v>1.4682390000000001</v>
       </c>
@@ -14580,7 +14713,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="5">
         <v>0.93951925000000003</v>
       </c>
@@ -14622,7 +14755,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="5">
         <v>0.93951925000000003</v>
       </c>
@@ -14664,7 +14797,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B42" s="5">
@@ -14708,7 +14841,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="5">
         <v>0.95999500000000004</v>
       </c>
@@ -14750,7 +14883,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="5">
         <v>0.96754799999999996</v>
       </c>
@@ -14792,7 +14925,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="5">
         <v>0.91645399999999999</v>
       </c>
@@ -14834,7 +14967,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="5">
         <v>0.97321599999999997</v>
       </c>
@@ -14876,7 +15009,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="19"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="5">
         <v>0.96754799999999996</v>
       </c>
@@ -14918,7 +15051,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="19"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="5">
         <v>0.93651399999999996</v>
       </c>
@@ -14960,7 +15093,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="5">
         <v>0.92012300000000002</v>
       </c>
@@ -15002,7 +15135,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="5">
         <v>1.5448733299999999</v>
       </c>
@@ -15044,7 +15177,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="5">
         <v>1.7762728400000001</v>
       </c>
@@ -15086,7 +15219,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B52" s="5">
@@ -15130,7 +15263,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="19"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="5">
         <v>0.95999500000000004</v>
       </c>
@@ -15172,7 +15305,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="19"/>
+      <c r="A54" s="20"/>
       <c r="B54" s="5">
         <v>0.96754799999999996</v>
       </c>
@@ -15214,7 +15347,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="19"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="5">
         <v>0.89515400000000001</v>
       </c>
@@ -15256,7 +15389,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="19"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="5">
         <v>1.0103</v>
       </c>
@@ -15298,7 +15431,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="5">
         <v>0.88565000000000005</v>
       </c>
@@ -15340,7 +15473,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="5">
         <v>0.93651399999999996</v>
       </c>
@@ -15382,7 +15515,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="5">
         <v>0.92012300000000002</v>
       </c>
@@ -15424,7 +15557,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="5">
         <v>0.93951925000000003</v>
       </c>
@@ -15466,7 +15599,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="19"/>
+      <c r="A61" s="20"/>
       <c r="B61" s="5">
         <v>1.13571683</v>
       </c>
@@ -15508,7 +15641,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B62" s="5">
@@ -15552,7 +15685,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
+      <c r="A63" s="20"/>
       <c r="B63" s="5">
         <v>0.86029299999999997</v>
       </c>
@@ -15594,7 +15727,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="19"/>
+      <c r="A64" s="20"/>
       <c r="B64" s="5">
         <v>0.93951899999999999</v>
       </c>
@@ -15636,7 +15769,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="19"/>
+      <c r="A65" s="20"/>
       <c r="B65" s="5">
         <v>0.89013799999999998</v>
       </c>
@@ -15678,7 +15811,7 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="19"/>
+      <c r="A66" s="20"/>
       <c r="B66" s="5">
         <v>1.3291839999999999</v>
       </c>
@@ -15720,7 +15853,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="19"/>
+      <c r="A67" s="20"/>
       <c r="B67" s="5">
         <v>0.397258</v>
       </c>
@@ -15762,7 +15895,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="19"/>
+      <c r="A68" s="20"/>
       <c r="B68" s="5">
         <v>1.312297</v>
       </c>
@@ -15804,7 +15937,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="19"/>
+      <c r="A69" s="20"/>
       <c r="B69" s="5">
         <v>1.2125280000000001</v>
       </c>
@@ -15846,7 +15979,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="19"/>
+      <c r="A70" s="20"/>
       <c r="B70" s="5">
         <v>0.93951925000000003</v>
       </c>
@@ -15888,7 +16021,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="19"/>
+      <c r="A71" s="20"/>
       <c r="B71" s="5">
         <v>0.93951925000000003</v>
       </c>
@@ -15930,7 +16063,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B72" s="5">
@@ -15974,7 +16107,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
+      <c r="A73" s="19"/>
       <c r="B73" s="5">
         <v>0.95999500000000004</v>
       </c>
@@ -16016,7 +16149,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="18"/>
+      <c r="A74" s="19"/>
       <c r="B74" s="5">
         <v>0.96754799999999996</v>
       </c>
@@ -16058,7 +16191,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="18"/>
+      <c r="A75" s="19"/>
       <c r="B75" s="5">
         <v>0.91645399999999999</v>
       </c>
@@ -16100,7 +16233,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="18"/>
+      <c r="A76" s="19"/>
       <c r="B76" s="5">
         <v>1.0103</v>
       </c>
@@ -16142,7 +16275,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="18"/>
+      <c r="A77" s="19"/>
       <c r="B77" s="5">
         <v>0.96754799999999996</v>
       </c>
@@ -16184,7 +16317,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="18"/>
+      <c r="A78" s="19"/>
       <c r="B78" s="5">
         <v>1.1237729999999999</v>
       </c>
@@ -16226,7 +16359,7 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="18"/>
+      <c r="A79" s="19"/>
       <c r="B79" s="5">
         <v>0.95070399999999999</v>
       </c>
@@ -16268,7 +16401,7 @@
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="18"/>
+      <c r="A80" s="19"/>
       <c r="B80" s="5">
         <v>0.93951925000000003</v>
       </c>
@@ -16310,7 +16443,7 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="18"/>
+      <c r="A81" s="19"/>
       <c r="B81" s="5">
         <v>0.93951925000000003</v>
       </c>
@@ -16352,7 +16485,7 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B82" s="5">
@@ -16396,7 +16529,7 @@
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="19"/>
+      <c r="A83" s="20"/>
       <c r="B83" s="5">
         <v>1.3632789999999999</v>
       </c>
@@ -16438,7 +16571,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="19"/>
+      <c r="A84" s="20"/>
       <c r="B84" s="5">
         <v>0.96754799999999996</v>
       </c>
@@ -16480,7 +16613,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="19"/>
+      <c r="A85" s="20"/>
       <c r="B85" s="5">
         <v>1.291202</v>
       </c>
@@ -16522,7 +16655,7 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="19"/>
+      <c r="A86" s="20"/>
       <c r="B86" s="5">
         <v>1.829728</v>
       </c>
@@ -16564,7 +16697,7 @@
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="19"/>
+      <c r="A87" s="20"/>
       <c r="B87" s="5">
         <v>1.0087090000000001</v>
       </c>
@@ -16606,7 +16739,7 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="19"/>
+      <c r="A88" s="20"/>
       <c r="B88" s="5">
         <v>1.515806</v>
       </c>
@@ -16648,7 +16781,7 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="19"/>
+      <c r="A89" s="20"/>
       <c r="B89" s="5">
         <v>1.356312</v>
       </c>
@@ -16690,7 +16823,7 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="19"/>
+      <c r="A90" s="20"/>
       <c r="B90" s="5">
         <v>0.93951925000000003</v>
       </c>
@@ -16732,7 +16865,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="19"/>
+      <c r="A91" s="20"/>
       <c r="B91" s="5">
         <v>0.93951925000000003</v>
       </c>
@@ -16774,7 +16907,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B92" s="5">
@@ -16818,7 +16951,7 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" s="19"/>
+      <c r="A93" s="20"/>
       <c r="B93" s="5">
         <v>0.93196599999999996</v>
       </c>
@@ -16860,7 +16993,7 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" s="19"/>
+      <c r="A94" s="20"/>
       <c r="B94" s="5">
         <v>0.96754799999999996</v>
       </c>
@@ -16902,7 +17035,7 @@
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="19"/>
+      <c r="A95" s="20"/>
       <c r="B95" s="5">
         <v>1.4865250000000001</v>
       </c>
@@ -16944,7 +17077,7 @@
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A96" s="19"/>
+      <c r="A96" s="20"/>
       <c r="B96" s="5">
         <v>1.536206</v>
       </c>
@@ -16986,7 +17119,7 @@
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="19"/>
+      <c r="A97" s="20"/>
       <c r="B97" s="5">
         <v>1.6969700000000001</v>
       </c>
@@ -17028,7 +17161,7 @@
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98" s="19"/>
+      <c r="A98" s="20"/>
       <c r="B98" s="5">
         <v>1.648566</v>
       </c>
@@ -17070,7 +17203,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" s="19"/>
+      <c r="A99" s="20"/>
       <c r="B99" s="5">
         <v>1.542762</v>
       </c>
@@ -17112,7 +17245,7 @@
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" s="19"/>
+      <c r="A100" s="20"/>
       <c r="B100" s="5">
         <v>0.93951925000000003</v>
       </c>
@@ -17154,7 +17287,7 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" s="19"/>
+      <c r="A101" s="20"/>
       <c r="B101" s="5">
         <v>0.86827019999999999</v>
       </c>
@@ -17196,7 +17329,7 @@
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A102" s="19" t="s">
+      <c r="A102" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B102" s="5">
@@ -17240,7 +17373,7 @@
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A103" s="19"/>
+      <c r="A103" s="20"/>
       <c r="B103" s="5">
         <v>0.95999500000000004</v>
       </c>
@@ -17282,7 +17415,7 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A104" s="19"/>
+      <c r="A104" s="20"/>
       <c r="B104" s="5">
         <v>0.96754799999999996</v>
       </c>
@@ -17324,7 +17457,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A105" s="19"/>
+      <c r="A105" s="20"/>
       <c r="B105" s="5">
         <v>0.94448299999999996</v>
       </c>
@@ -17366,7 +17499,7 @@
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106" s="19"/>
+      <c r="A106" s="20"/>
       <c r="B106" s="5">
         <v>1.0103</v>
       </c>
@@ -17408,7 +17541,7 @@
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A107" s="19"/>
+      <c r="A107" s="20"/>
       <c r="B107" s="5">
         <v>0.96754799999999996</v>
       </c>
@@ -17450,7 +17583,7 @@
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A108" s="19"/>
+      <c r="A108" s="20"/>
       <c r="B108" s="5">
         <v>0.90848499999999999</v>
       </c>
@@ -17492,7 +17625,7 @@
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" s="19"/>
+      <c r="A109" s="20"/>
       <c r="B109" s="5">
         <v>0.92012300000000002</v>
       </c>
@@ -17534,7 +17667,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" s="19"/>
+      <c r="A110" s="20"/>
       <c r="B110" s="5">
         <v>0.93951925000000003</v>
       </c>
@@ -17576,7 +17709,7 @@
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" s="19"/>
+      <c r="A111" s="20"/>
       <c r="B111" s="5">
         <v>0.93951925000000003</v>
       </c>
@@ -17618,7 +17751,7 @@
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A112" s="19" t="s">
+      <c r="A112" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B112" s="5">
@@ -17662,7 +17795,7 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A113" s="19"/>
+      <c r="A113" s="20"/>
       <c r="B113" s="5">
         <v>1.4940789999999999</v>
       </c>
@@ -17704,7 +17837,7 @@
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A114" s="19"/>
+      <c r="A114" s="20"/>
       <c r="B114" s="5">
         <v>1.3615090000000001</v>
       </c>
@@ -17746,7 +17879,7 @@
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A115" s="19"/>
+      <c r="A115" s="20"/>
       <c r="B115" s="5">
         <v>1.6055159999999999</v>
       </c>
@@ -17788,7 +17921,7 @@
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A116" s="19"/>
+      <c r="A116" s="20"/>
       <c r="B116" s="5">
         <v>1.7267250000000001</v>
       </c>
@@ -17830,7 +17963,7 @@
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A117" s="19"/>
+      <c r="A117" s="20"/>
       <c r="B117" s="5">
         <v>1.6148199999999999</v>
       </c>
@@ -17872,7 +18005,7 @@
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A118" s="19"/>
+      <c r="A118" s="20"/>
       <c r="B118" s="5">
         <v>1.5193350000000001</v>
       </c>
@@ -17914,7 +18047,7 @@
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A119" s="19"/>
+      <c r="A119" s="20"/>
       <c r="B119" s="5">
         <v>1.6677150000000001</v>
       </c>
@@ -17956,7 +18089,7 @@
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A120" s="19"/>
+      <c r="A120" s="20"/>
       <c r="B120" s="5">
         <v>0.59023555000000005</v>
       </c>
@@ -17998,7 +18131,7 @@
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A121" s="19"/>
+      <c r="A121" s="20"/>
       <c r="B121" s="5">
         <v>1.3475467400000001</v>
       </c>
@@ -18040,7 +18173,7 @@
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A122" s="19" t="s">
+      <c r="A122" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B122" s="5">
@@ -18084,7 +18217,7 @@
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A123" s="19"/>
+      <c r="A123" s="20"/>
       <c r="B123" s="5">
         <v>0.95999500000000004</v>
       </c>
@@ -18126,7 +18259,7 @@
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A124" s="19"/>
+      <c r="A124" s="20"/>
       <c r="B124" s="5">
         <v>0.96754799999999996</v>
       </c>
@@ -18168,7 +18301,7 @@
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A125" s="19"/>
+      <c r="A125" s="20"/>
       <c r="B125" s="5">
         <v>1.3876269999999999</v>
       </c>
@@ -18210,7 +18343,7 @@
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A126" s="19"/>
+      <c r="A126" s="20"/>
       <c r="B126" s="5">
         <v>0.98227100000000001</v>
       </c>
@@ -18252,7 +18385,7 @@
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A127" s="19"/>
+      <c r="A127" s="20"/>
       <c r="B127" s="5">
         <v>0.96754799999999996</v>
       </c>
@@ -18294,7 +18427,7 @@
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A128" s="19"/>
+      <c r="A128" s="20"/>
       <c r="B128" s="5">
         <v>0.93651399999999996</v>
       </c>
@@ -18336,7 +18469,7 @@
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A129" s="19"/>
+      <c r="A129" s="20"/>
       <c r="B129" s="5">
         <v>0.92012300000000002</v>
       </c>
@@ -18378,7 +18511,7 @@
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A130" s="19"/>
+      <c r="A130" s="20"/>
       <c r="B130" s="5">
         <v>0.93951925000000003</v>
       </c>
@@ -18420,7 +18553,7 @@
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A131" s="19"/>
+      <c r="A131" s="20"/>
       <c r="B131" s="5">
         <v>1.8822356</v>
       </c>
@@ -18462,7 +18595,7 @@
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A132" s="19" t="s">
+      <c r="A132" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B132" s="5">
@@ -18506,7 +18639,7 @@
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A133" s="19"/>
+      <c r="A133" s="20"/>
       <c r="B133" s="5">
         <v>0.95999500000000004</v>
       </c>
@@ -18548,7 +18681,7 @@
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A134" s="19"/>
+      <c r="A134" s="20"/>
       <c r="B134" s="5">
         <v>0.96754799999999996</v>
       </c>
@@ -18590,7 +18723,7 @@
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A135" s="19"/>
+      <c r="A135" s="20"/>
       <c r="B135" s="5">
         <v>0.91645399999999999</v>
       </c>
@@ -18632,7 +18765,7 @@
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A136" s="19"/>
+      <c r="A136" s="20"/>
       <c r="B136" s="5">
         <v>1.0103</v>
       </c>
@@ -18674,7 +18807,7 @@
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A137" s="19"/>
+      <c r="A137" s="20"/>
       <c r="B137" s="5">
         <v>0.96754799999999996</v>
       </c>
@@ -18716,7 +18849,7 @@
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A138" s="19"/>
+      <c r="A138" s="20"/>
       <c r="B138" s="5">
         <v>0.93651399999999996</v>
       </c>
@@ -18758,7 +18891,7 @@
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A139" s="19"/>
+      <c r="A139" s="20"/>
       <c r="B139" s="5">
         <v>0.92012300000000002</v>
       </c>
@@ -18800,7 +18933,7 @@
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A140" s="19"/>
+      <c r="A140" s="20"/>
       <c r="B140" s="5">
         <v>0.93951925000000003</v>
       </c>
@@ -18842,7 +18975,7 @@
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A141" s="19"/>
+      <c r="A141" s="20"/>
       <c r="B141" s="5">
         <v>0.93951925000000003</v>
       </c>
@@ -18884,7 +19017,7 @@
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A142" s="19" t="s">
+      <c r="A142" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B142" s="5">
@@ -18928,7 +19061,7 @@
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A143" s="19"/>
+      <c r="A143" s="20"/>
       <c r="B143" s="5">
         <v>0.95999500000000004</v>
       </c>
@@ -18970,7 +19103,7 @@
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A144" s="19"/>
+      <c r="A144" s="20"/>
       <c r="B144" s="5">
         <v>0.96754799999999996</v>
       </c>
@@ -19012,7 +19145,7 @@
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A145" s="19"/>
+      <c r="A145" s="20"/>
       <c r="B145" s="5">
         <v>0.94448299999999996</v>
       </c>
@@ -19054,7 +19187,7 @@
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A146" s="19"/>
+      <c r="A146" s="20"/>
       <c r="B146" s="5">
         <v>1.0103</v>
       </c>
@@ -19096,7 +19229,7 @@
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A147" s="19"/>
+      <c r="A147" s="20"/>
       <c r="B147" s="5">
         <v>0.96754799999999996</v>
       </c>
@@ -19138,7 +19271,7 @@
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A148" s="19"/>
+      <c r="A148" s="20"/>
       <c r="B148" s="5">
         <v>0.93651399999999996</v>
       </c>
@@ -19180,7 +19313,7 @@
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A149" s="19"/>
+      <c r="A149" s="20"/>
       <c r="B149" s="5">
         <v>0.92012300000000002</v>
       </c>
@@ -19222,7 +19355,7 @@
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A150" s="19"/>
+      <c r="A150" s="20"/>
       <c r="B150" s="5">
         <v>0.93951925000000003</v>
       </c>
@@ -19264,7 +19397,7 @@
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A151" s="19"/>
+      <c r="A151" s="20"/>
       <c r="B151" s="5">
         <v>0.93951925000000003</v>
       </c>
@@ -19306,7 +19439,7 @@
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A152" s="19" t="s">
+      <c r="A152" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B152" s="5">
@@ -19350,7 +19483,7 @@
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A153" s="19"/>
+      <c r="A153" s="20"/>
       <c r="B153" s="5">
         <v>0.34565499999999999</v>
       </c>
@@ -19392,7 +19525,7 @@
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A154" s="19"/>
+      <c r="A154" s="20"/>
       <c r="B154" s="5">
         <v>0.96754799999999996</v>
       </c>
@@ -19434,7 +19567,7 @@
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A155" s="19"/>
+      <c r="A155" s="20"/>
       <c r="B155" s="5">
         <v>1.5320419999999999</v>
       </c>
@@ -19476,7 +19609,7 @@
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A156" s="19"/>
+      <c r="A156" s="20"/>
       <c r="B156" s="5">
         <v>1.101421</v>
       </c>
@@ -19518,7 +19651,7 @@
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A157" s="19"/>
+      <c r="A157" s="20"/>
       <c r="B157" s="5">
         <v>0.96754799999999996</v>
       </c>
@@ -19560,7 +19693,7 @@
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A158" s="19"/>
+      <c r="A158" s="20"/>
       <c r="B158" s="5">
         <v>1.4045909999999999</v>
       </c>
@@ -19602,7 +19735,7 @@
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A159" s="19"/>
+      <c r="A159" s="20"/>
       <c r="B159" s="5">
         <v>1.160938</v>
       </c>
@@ -19644,7 +19777,7 @@
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A160" s="19"/>
+      <c r="A160" s="20"/>
       <c r="B160" s="5">
         <v>1.1516995400000001</v>
       </c>
@@ -19686,7 +19819,7 @@
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A161" s="19"/>
+      <c r="A161" s="20"/>
       <c r="B161" s="5">
         <v>0.90777204</v>
       </c>
@@ -19728,7 +19861,7 @@
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A162" s="19" t="s">
+      <c r="A162" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B162" s="5">
@@ -19772,7 +19905,7 @@
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A163" s="19"/>
+      <c r="A163" s="20"/>
       <c r="B163" s="5">
         <v>0.93196599999999996</v>
       </c>
@@ -19814,7 +19947,7 @@
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A164" s="19"/>
+      <c r="A164" s="20"/>
       <c r="B164" s="5">
         <v>0.96754799999999996</v>
       </c>
@@ -19856,7 +19989,7 @@
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A165" s="19"/>
+      <c r="A165" s="20"/>
       <c r="B165" s="5">
         <v>0.96539299999999995</v>
       </c>
@@ -19898,7 +20031,7 @@
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A166" s="19"/>
+      <c r="A166" s="20"/>
       <c r="B166" s="5">
         <v>1.1278250000000001</v>
       </c>
@@ -19940,7 +20073,7 @@
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A167" s="19"/>
+      <c r="A167" s="20"/>
       <c r="B167" s="5">
         <v>0.96754799999999996</v>
       </c>
@@ -19982,7 +20115,7 @@
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A168" s="19"/>
+      <c r="A168" s="20"/>
       <c r="B168" s="5">
         <v>0.542964</v>
       </c>
@@ -20024,7 +20157,7 @@
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A169" s="19"/>
+      <c r="A169" s="20"/>
       <c r="B169" s="5">
         <v>0.89209499999999997</v>
       </c>
@@ -20066,7 +20199,7 @@
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A170" s="19"/>
+      <c r="A170" s="20"/>
       <c r="B170" s="5">
         <v>0.93951925000000003</v>
       </c>
@@ -20108,7 +20241,7 @@
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A171" s="19"/>
+      <c r="A171" s="20"/>
       <c r="B171" s="5">
         <v>0.93951925000000003</v>
       </c>
